--- a/data/2020-07-07/Surf_2020-07-07.xlsx
+++ b/data/2020-07-07/Surf_2020-07-07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bas.Suckling\projects\wave-analysis\data\2020-07-07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE91749-59F2-4FCC-B4EF-438F92126F90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4602E82-FC1A-4B17-B5A5-D36B18CF6E8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" xr2:uid="{16D8657F-32DF-4FFD-A84F-2578FF5E6C5D}"/>
   </bookViews>
@@ -17927,7 +17927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907C23BE-2F73-4788-BD79-9E83D7AA0ABB}">
   <dimension ref="A1:E1368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
